--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwei/Git/Advent-Of-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275094C0-9605-BA4A-BB85-BA2DABFAECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640DCBB-419C-C248-8F4D-A69F5E2875D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{5CA55826-8B1F-D44A-9B2A-B844E2FF1D1F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Language</t>
   </si>
@@ -122,10 +122,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C263C154-ACE1-3F40-A6FE-5BA291CAAE2F}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="240" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,26 +468,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -689,6 +689,15 @@
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E18">
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwei/Git/Advent-Of-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640DCBB-419C-C248-8F4D-A69F5E2875D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42C60DA-3C9D-6144-9B54-4BB61D0DCE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{5CA55826-8B1F-D44A-9B2A-B844E2FF1D1F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Language</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>CPU (%)</t>
+  </si>
+  <si>
+    <t>Numpy</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="B2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="240" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,6 +706,15 @@
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E19">
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
